--- a/pred_ohlcv/54/2019-10-24 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-24 KNC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H305"/>
+  <dimension ref="A1:I285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>187</v>
       </c>
       <c r="F2" t="n">
-        <v>2460492</v>
+        <v>2480496</v>
       </c>
       <c r="G2" t="n">
-        <v>187</v>
+        <v>186.9833333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>187</v>
       </c>
       <c r="F3" t="n">
-        <v>1546248</v>
+        <v>2460492</v>
       </c>
       <c r="G3" t="n">
-        <v>187.0166666666667</v>
+        <v>187</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>187</v>
       </c>
       <c r="F4" t="n">
-        <v>2286000</v>
+        <v>1546248</v>
       </c>
       <c r="G4" t="n">
-        <v>187.0333333333333</v>
+        <v>187.0166666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>187</v>
       </c>
       <c r="F5" t="n">
-        <v>2277000</v>
+        <v>2286000</v>
       </c>
       <c r="G5" t="n">
-        <v>187.05</v>
+        <v>187.0333333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>187</v>
       </c>
       <c r="F6" t="n">
-        <v>2286000</v>
+        <v>2277000</v>
       </c>
       <c r="G6" t="n">
         <v>187.05</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -553,9 +573,12 @@
         <v>2286000</v>
       </c>
       <c r="G7" t="n">
-        <v>187.0333333333333</v>
+        <v>187.05</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>187</v>
       </c>
       <c r="F8" t="n">
-        <v>2324151.4536</v>
+        <v>2286000</v>
       </c>
       <c r="G8" t="n">
-        <v>187.0166666666667</v>
+        <v>187.0333333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>187</v>
       </c>
       <c r="F9" t="n">
-        <v>2274848.5464</v>
+        <v>2324151.4536</v>
       </c>
       <c r="G9" t="n">
-        <v>187</v>
+        <v>187.0166666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>187</v>
       </c>
       <c r="F10" t="n">
-        <v>2268000</v>
+        <v>2274848.5464</v>
       </c>
       <c r="G10" t="n">
-        <v>186.9833333333333</v>
+        <v>187</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>187</v>
       </c>
       <c r="F11" t="n">
-        <v>2295000</v>
+        <v>2268000</v>
       </c>
       <c r="G11" t="n">
         <v>186.9833333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>187</v>
       </c>
       <c r="F12" t="n">
-        <v>2295294.9999</v>
+        <v>2295000</v>
       </c>
       <c r="G12" t="n">
         <v>186.9833333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>187</v>
       </c>
       <c r="F13" t="n">
-        <v>2376000</v>
+        <v>2295294.9999</v>
       </c>
       <c r="G13" t="n">
         <v>186.9833333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>187</v>
       </c>
       <c r="F14" t="n">
-        <v>2313000</v>
+        <v>2376000</v>
       </c>
       <c r="G14" t="n">
         <v>186.9833333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -784,12 +831,15 @@
         <v>187</v>
       </c>
       <c r="F16" t="n">
-        <v>2295000</v>
+        <v>2313000</v>
       </c>
       <c r="G16" t="n">
         <v>186.9833333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>187</v>
       </c>
       <c r="C17" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" t="n">
         <v>187</v>
       </c>
       <c r="F17" t="n">
-        <v>1043858.2994</v>
+        <v>2295000</v>
       </c>
       <c r="G17" t="n">
-        <v>187</v>
+        <v>186.9833333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,10 +877,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D18" t="n">
         <v>188</v>
@@ -836,12 +889,15 @@
         <v>187</v>
       </c>
       <c r="F18" t="n">
-        <v>366800</v>
+        <v>1043858.2994</v>
       </c>
       <c r="G18" t="n">
         <v>187</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" t="n">
         <v>187</v>
       </c>
       <c r="D19" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E19" t="n">
         <v>187</v>
       </c>
       <c r="F19" t="n">
-        <v>2580000</v>
+        <v>366800</v>
       </c>
       <c r="G19" t="n">
         <v>187</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>187</v>
       </c>
       <c r="F20" t="n">
-        <v>2590000</v>
+        <v>2580000</v>
       </c>
       <c r="G20" t="n">
         <v>187</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>187</v>
       </c>
       <c r="F21" t="n">
-        <v>2610000</v>
+        <v>2590000</v>
       </c>
       <c r="G21" t="n">
         <v>187</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>187</v>
       </c>
       <c r="F22" t="n">
-        <v>1970000</v>
+        <v>2610000</v>
       </c>
       <c r="G22" t="n">
         <v>187</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E23" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F23" t="n">
-        <v>398016.9946</v>
+        <v>1970000</v>
       </c>
       <c r="G23" t="n">
-        <v>187.0333333333333</v>
+        <v>187</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>188</v>
       </c>
       <c r="F24" t="n">
-        <v>689118</v>
+        <v>398016.9946</v>
       </c>
       <c r="G24" t="n">
-        <v>187.05</v>
+        <v>187.0333333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>188</v>
       </c>
       <c r="F25" t="n">
-        <v>691789</v>
+        <v>689118</v>
       </c>
       <c r="G25" t="n">
-        <v>187.0666666666667</v>
+        <v>187.05</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>188</v>
       </c>
       <c r="F26" t="n">
-        <v>491464</v>
+        <v>691789</v>
       </c>
       <c r="G26" t="n">
-        <v>187.0833333333333</v>
+        <v>187.0666666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>188</v>
       </c>
       <c r="F27" t="n">
-        <v>1379025.1023</v>
+        <v>491464</v>
       </c>
       <c r="G27" t="n">
-        <v>187.1</v>
+        <v>187.0833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>188</v>
       </c>
       <c r="F28" t="n">
-        <v>1431490</v>
+        <v>1379025.1023</v>
       </c>
       <c r="G28" t="n">
-        <v>187.1166666666667</v>
+        <v>187.1</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>188</v>
       </c>
       <c r="F29" t="n">
-        <v>1459340</v>
+        <v>1431490</v>
       </c>
       <c r="G29" t="n">
-        <v>187.1333333333333</v>
+        <v>187.1166666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>188</v>
       </c>
       <c r="F30" t="n">
-        <v>756649.8977</v>
+        <v>1459340</v>
       </c>
       <c r="G30" t="n">
-        <v>187.15</v>
+        <v>187.1333333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>188</v>
       </c>
       <c r="F31" t="n">
-        <v>1717965.21</v>
+        <v>756649.8977</v>
       </c>
       <c r="G31" t="n">
-        <v>187.1666666666667</v>
+        <v>187.15</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>188</v>
       </c>
       <c r="F32" t="n">
-        <v>2313000</v>
+        <v>1717965.21</v>
       </c>
       <c r="G32" t="n">
-        <v>187.1833333333333</v>
+        <v>187.1666666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>188</v>
       </c>
       <c r="F33" t="n">
-        <v>235709.137</v>
+        <v>2313000</v>
       </c>
       <c r="G33" t="n">
-        <v>187.2</v>
+        <v>187.1833333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>188</v>
       </c>
       <c r="C34" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E34" t="n">
         <v>188</v>
       </c>
       <c r="F34" t="n">
-        <v>319883.6548</v>
+        <v>235709.137</v>
       </c>
       <c r="G34" t="n">
-        <v>187.2333333333333</v>
+        <v>187.2</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,7 +1370,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" t="n">
         <v>189</v>
@@ -1275,15 +1379,18 @@
         <v>189</v>
       </c>
       <c r="E35" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F35" t="n">
-        <v>774000</v>
+        <v>319883.6548</v>
       </c>
       <c r="G35" t="n">
-        <v>187.2666666666667</v>
+        <v>187.2333333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>189</v>
       </c>
       <c r="F36" t="n">
-        <v>786000</v>
+        <v>774000</v>
       </c>
       <c r="G36" t="n">
-        <v>187.3</v>
+        <v>187.2666666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>189</v>
       </c>
       <c r="F37" t="n">
-        <v>636000</v>
+        <v>786000</v>
       </c>
       <c r="G37" t="n">
-        <v>187.3333333333333</v>
+        <v>187.3</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>189</v>
       </c>
       <c r="F38" t="n">
-        <v>1896860</v>
+        <v>636000</v>
       </c>
       <c r="G38" t="n">
-        <v>187.3666666666667</v>
+        <v>187.3333333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>189</v>
       </c>
       <c r="F39" t="n">
-        <v>2080315.1752</v>
+        <v>1896860</v>
       </c>
       <c r="G39" t="n">
-        <v>187.4</v>
+        <v>187.3666666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>189</v>
       </c>
       <c r="F40" t="n">
-        <v>1124037</v>
+        <v>2080315.1752</v>
       </c>
       <c r="G40" t="n">
-        <v>187.4333333333333</v>
+        <v>187.4</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" t="n">
         <v>189</v>
       </c>
       <c r="D41" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E41" t="n">
         <v>189</v>
       </c>
       <c r="F41" t="n">
-        <v>77248</v>
+        <v>1124037</v>
       </c>
       <c r="G41" t="n">
-        <v>187.4666666666667</v>
+        <v>187.4333333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C42" t="n">
         <v>189</v>
       </c>
       <c r="D42" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E42" t="n">
         <v>189</v>
       </c>
       <c r="F42" t="n">
-        <v>2498500</v>
+        <v>77248</v>
       </c>
       <c r="G42" t="n">
-        <v>187.5</v>
+        <v>187.4666666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>189</v>
       </c>
       <c r="F43" t="n">
-        <v>2508000</v>
+        <v>2498500</v>
       </c>
       <c r="G43" t="n">
-        <v>187.5333333333333</v>
+        <v>187.5</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1515,9 +1646,12 @@
         <v>2508000</v>
       </c>
       <c r="G44" t="n">
-        <v>187.5666666666667</v>
+        <v>187.5333333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>189</v>
       </c>
       <c r="F45" t="n">
-        <v>2479500</v>
+        <v>2508000</v>
       </c>
       <c r="G45" t="n">
-        <v>187.6</v>
+        <v>187.5666666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>189</v>
       </c>
       <c r="F46" t="n">
-        <v>2517500</v>
+        <v>2479500</v>
       </c>
       <c r="G46" t="n">
-        <v>187.6333333333333</v>
+        <v>187.6</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>189</v>
       </c>
       <c r="F47" t="n">
-        <v>2508000</v>
+        <v>2517500</v>
       </c>
       <c r="G47" t="n">
-        <v>187.6666666666667</v>
+        <v>187.6333333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>189</v>
       </c>
       <c r="F48" t="n">
-        <v>2498500</v>
+        <v>2508000</v>
       </c>
       <c r="G48" t="n">
-        <v>187.7</v>
+        <v>187.6666666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>189</v>
       </c>
       <c r="F49" t="n">
-        <v>2489836.9835</v>
+        <v>2498500</v>
       </c>
       <c r="G49" t="n">
-        <v>187.7333333333333</v>
+        <v>187.7</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>189</v>
       </c>
       <c r="F50" t="n">
-        <v>2508000</v>
+        <v>2489836.9835</v>
       </c>
       <c r="G50" t="n">
-        <v>187.7666666666667</v>
+        <v>187.7333333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>189</v>
       </c>
       <c r="F51" t="n">
-        <v>2509025.5076</v>
+        <v>2508000</v>
       </c>
       <c r="G51" t="n">
-        <v>187.8</v>
+        <v>187.7666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>189</v>
       </c>
       <c r="F52" t="n">
-        <v>2498500</v>
+        <v>2509025.5076</v>
       </c>
       <c r="G52" t="n">
-        <v>187.8333333333333</v>
+        <v>187.8</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>189</v>
       </c>
       <c r="F53" t="n">
-        <v>2527000</v>
+        <v>2498500</v>
       </c>
       <c r="G53" t="n">
-        <v>187.8666666666667</v>
+        <v>187.8333333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>189</v>
       </c>
       <c r="F54" t="n">
-        <v>598609.5101</v>
+        <v>2527000</v>
       </c>
       <c r="G54" t="n">
-        <v>187.9</v>
+        <v>187.8666666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>189</v>
       </c>
       <c r="F55" t="n">
-        <v>2547837.0422</v>
+        <v>598609.5101</v>
       </c>
       <c r="G55" t="n">
-        <v>187.9333333333333</v>
+        <v>187.9</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>189</v>
       </c>
       <c r="F56" t="n">
-        <v>2517500</v>
+        <v>2547837.0422</v>
       </c>
       <c r="G56" t="n">
-        <v>187.9666666666667</v>
+        <v>187.9333333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>189</v>
       </c>
       <c r="F57" t="n">
-        <v>2558204</v>
+        <v>2517500</v>
       </c>
       <c r="G57" t="n">
-        <v>188</v>
+        <v>187.9666666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>189</v>
       </c>
       <c r="F58" t="n">
-        <v>2524296</v>
+        <v>2558204</v>
       </c>
       <c r="G58" t="n">
-        <v>188.0333333333333</v>
+        <v>188</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>189</v>
       </c>
       <c r="F59" t="n">
-        <v>2536500</v>
+        <v>2524296</v>
       </c>
       <c r="G59" t="n">
-        <v>188.0666666666667</v>
+        <v>188.0333333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>189</v>
       </c>
       <c r="F60" t="n">
-        <v>2530614.4335</v>
+        <v>2536500</v>
       </c>
       <c r="G60" t="n">
-        <v>188.1</v>
+        <v>188.0666666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>189</v>
       </c>
       <c r="F61" t="n">
-        <v>1710000</v>
+        <v>2530614.4335</v>
       </c>
       <c r="G61" t="n">
-        <v>188.1333333333333</v>
+        <v>188.1</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C62" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E62" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F62" t="n">
-        <v>1823163</v>
+        <v>1710000</v>
       </c>
       <c r="G62" t="n">
-        <v>188.15</v>
+        <v>188.1333333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>188</v>
       </c>
       <c r="F63" t="n">
-        <v>1012323</v>
+        <v>1823163</v>
       </c>
       <c r="G63" t="n">
-        <v>188.1666666666667</v>
+        <v>188.15</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E64" t="n">
         <v>188</v>
       </c>
       <c r="F64" t="n">
-        <v>869721.4577</v>
+        <v>1012323</v>
       </c>
       <c r="G64" t="n">
-        <v>188.2</v>
+        <v>188.1666666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2055,15 +2249,18 @@
         <v>189</v>
       </c>
       <c r="E65" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F65" t="n">
-        <v>978622</v>
+        <v>869721.4577</v>
       </c>
       <c r="G65" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>189</v>
       </c>
       <c r="F66" t="n">
-        <v>971346</v>
+        <v>978622</v>
       </c>
       <c r="G66" t="n">
-        <v>188.2666666666667</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>189</v>
       </c>
       <c r="F67" t="n">
-        <v>978622</v>
+        <v>971346</v>
       </c>
       <c r="G67" t="n">
-        <v>188.3</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>189</v>
       </c>
       <c r="F68" t="n">
-        <v>956794</v>
+        <v>978622</v>
       </c>
       <c r="G68" t="n">
-        <v>188.3333333333333</v>
+        <v>188.3</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>189</v>
       </c>
       <c r="F69" t="n">
-        <v>978622</v>
+        <v>956794</v>
       </c>
       <c r="G69" t="n">
-        <v>188.3666666666667</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>189</v>
       </c>
       <c r="F70" t="n">
-        <v>967708</v>
+        <v>978622</v>
       </c>
       <c r="G70" t="n">
-        <v>188.4</v>
+        <v>188.3666666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>189</v>
       </c>
       <c r="F71" t="n">
-        <v>974984</v>
+        <v>967708</v>
       </c>
       <c r="G71" t="n">
-        <v>188.4333333333333</v>
+        <v>188.4</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>189</v>
       </c>
       <c r="F72" t="n">
-        <v>978622</v>
+        <v>974984</v>
       </c>
       <c r="G72" t="n">
-        <v>188.4666666666667</v>
+        <v>188.4333333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>189</v>
       </c>
       <c r="F73" t="n">
-        <v>956794</v>
+        <v>978622</v>
       </c>
       <c r="G73" t="n">
-        <v>188.5</v>
+        <v>188.4666666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>189</v>
       </c>
       <c r="F74" t="n">
-        <v>829464</v>
+        <v>956794</v>
       </c>
       <c r="G74" t="n">
-        <v>188.5333333333333</v>
+        <v>188.5</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>189</v>
       </c>
       <c r="F75" t="n">
-        <v>1222499.9999</v>
+        <v>829464</v>
       </c>
       <c r="G75" t="n">
-        <v>188.5666666666667</v>
+        <v>188.5333333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>189</v>
       </c>
       <c r="F76" t="n">
-        <v>1980000</v>
+        <v>1222499.9999</v>
       </c>
       <c r="G76" t="n">
-        <v>188.6</v>
+        <v>188.5666666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>189</v>
       </c>
       <c r="F77" t="n">
-        <v>1980000.0001</v>
+        <v>1980000</v>
       </c>
       <c r="G77" t="n">
-        <v>188.6166666666667</v>
+        <v>188.6</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>189</v>
       </c>
       <c r="F78" t="n">
-        <v>2010000</v>
+        <v>1980000.0001</v>
       </c>
       <c r="G78" t="n">
-        <v>188.65</v>
+        <v>188.6166666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>189</v>
       </c>
       <c r="F79" t="n">
-        <v>2032499.9999</v>
+        <v>2010000</v>
       </c>
       <c r="G79" t="n">
-        <v>188.6833333333333</v>
+        <v>188.65</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>189</v>
       </c>
       <c r="F80" t="n">
-        <v>1987500.0001</v>
+        <v>2032499.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>188.7166666666667</v>
+        <v>188.6833333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>189</v>
       </c>
       <c r="F81" t="n">
-        <v>2002499.9999</v>
+        <v>1987500.0001</v>
       </c>
       <c r="G81" t="n">
-        <v>188.75</v>
+        <v>188.7166666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>189</v>
       </c>
       <c r="F82" t="n">
-        <v>2010000</v>
+        <v>2002499.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>188.7833333333333</v>
+        <v>188.75</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>189</v>
       </c>
       <c r="F83" t="n">
-        <v>1987500.0001</v>
+        <v>2010000</v>
       </c>
       <c r="G83" t="n">
-        <v>188.8</v>
+        <v>188.7833333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>189</v>
       </c>
       <c r="F84" t="n">
-        <v>2017499.9999</v>
+        <v>1987500.0001</v>
       </c>
       <c r="G84" t="n">
-        <v>188.8166666666667</v>
+        <v>188.8</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>189</v>
       </c>
       <c r="F85" t="n">
-        <v>2040000.0001</v>
+        <v>2017499.9999</v>
       </c>
       <c r="G85" t="n">
-        <v>188.8333333333333</v>
+        <v>188.8166666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>189</v>
       </c>
       <c r="F86" t="n">
-        <v>2047499.9999</v>
+        <v>2040000.0001</v>
       </c>
       <c r="G86" t="n">
-        <v>188.85</v>
+        <v>188.8333333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>189</v>
       </c>
       <c r="F87" t="n">
-        <v>1687500</v>
+        <v>2047499.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>188.8666666666667</v>
+        <v>188.85</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>189</v>
       </c>
       <c r="C88" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D88" t="n">
         <v>189</v>
       </c>
       <c r="E88" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F88" t="n">
-        <v>652676.5519</v>
+        <v>1687500</v>
       </c>
       <c r="G88" t="n">
         <v>188.8666666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C89" t="n">
         <v>188</v>
       </c>
       <c r="D89" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E89" t="n">
         <v>188</v>
       </c>
       <c r="F89" t="n">
-        <v>237.7608</v>
+        <v>652676.5519</v>
       </c>
       <c r="G89" t="n">
         <v>188.8666666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>188</v>
       </c>
       <c r="F90" t="n">
-        <v>837000</v>
+        <v>237.7608</v>
       </c>
       <c r="G90" t="n">
         <v>188.8666666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>188</v>
       </c>
       <c r="F91" t="n">
-        <v>2412000</v>
+        <v>837000</v>
       </c>
       <c r="G91" t="n">
         <v>188.8666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>188</v>
       </c>
       <c r="F92" t="n">
-        <v>2421000</v>
+        <v>2412000</v>
       </c>
       <c r="G92" t="n">
         <v>188.8666666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>188</v>
       </c>
       <c r="F93" t="n">
-        <v>2403000</v>
+        <v>2421000</v>
       </c>
       <c r="G93" t="n">
         <v>188.8666666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>188</v>
       </c>
       <c r="F94" t="n">
-        <v>2439000</v>
+        <v>2403000</v>
       </c>
       <c r="G94" t="n">
-        <v>188.85</v>
+        <v>188.8666666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>188</v>
       </c>
       <c r="F95" t="n">
-        <v>2421336.6106</v>
+        <v>2439000</v>
       </c>
       <c r="G95" t="n">
-        <v>188.8333333333333</v>
+        <v>188.85</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>188</v>
       </c>
       <c r="F96" t="n">
-        <v>2385000</v>
+        <v>2421336.6106</v>
       </c>
       <c r="G96" t="n">
-        <v>188.8166666666667</v>
+        <v>188.8333333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>188</v>
       </c>
       <c r="F97" t="n">
-        <v>2412169.5744</v>
+        <v>2385000</v>
       </c>
       <c r="G97" t="n">
-        <v>188.8</v>
+        <v>188.8166666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>188</v>
       </c>
       <c r="F98" t="n">
-        <v>2429493.815</v>
+        <v>2412169.5744</v>
       </c>
       <c r="G98" t="n">
-        <v>188.7833333333333</v>
+        <v>188.8</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>188</v>
       </c>
       <c r="F99" t="n">
-        <v>2439000</v>
+        <v>2429493.815</v>
       </c>
       <c r="G99" t="n">
-        <v>188.7666666666667</v>
+        <v>188.7833333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>188</v>
       </c>
       <c r="F100" t="n">
-        <v>2369165.1244</v>
+        <v>2439000</v>
       </c>
       <c r="G100" t="n">
-        <v>188.75</v>
+        <v>188.7666666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>188</v>
       </c>
       <c r="F101" t="n">
-        <v>1683000</v>
+        <v>2369165.1244</v>
       </c>
       <c r="G101" t="n">
-        <v>188.7333333333333</v>
+        <v>188.75</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>188</v>
       </c>
       <c r="F102" t="n">
-        <v>511499.6454</v>
+        <v>1683000</v>
       </c>
       <c r="G102" t="n">
-        <v>188.7166666666667</v>
+        <v>188.7333333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>188</v>
       </c>
       <c r="F103" t="n">
-        <v>2587508</v>
+        <v>511499.6454</v>
       </c>
       <c r="G103" t="n">
-        <v>188.7</v>
+        <v>188.7166666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>188</v>
       </c>
       <c r="F104" t="n">
-        <v>2581095.4863</v>
+        <v>2587508</v>
       </c>
       <c r="G104" t="n">
-        <v>188.6833333333333</v>
+        <v>188.7</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>188</v>
       </c>
       <c r="F105" t="n">
-        <v>2613016.5137</v>
+        <v>2581095.4863</v>
       </c>
       <c r="G105" t="n">
-        <v>188.6666666666667</v>
+        <v>188.6833333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>188</v>
       </c>
       <c r="F106" t="n">
-        <v>2597056</v>
+        <v>2613016.5137</v>
       </c>
       <c r="G106" t="n">
-        <v>188.65</v>
+        <v>188.6666666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>188</v>
       </c>
       <c r="F107" t="n">
-        <v>2568412</v>
+        <v>2597056</v>
       </c>
       <c r="G107" t="n">
-        <v>188.6333333333333</v>
+        <v>188.65</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>188</v>
       </c>
       <c r="F108" t="n">
-        <v>2617087</v>
+        <v>2568412</v>
       </c>
       <c r="G108" t="n">
-        <v>188.6166666666667</v>
+        <v>188.6333333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>188</v>
       </c>
       <c r="F109" t="n">
-        <v>1472592.4863</v>
+        <v>2617087</v>
       </c>
       <c r="G109" t="n">
-        <v>188.6</v>
+        <v>188.6166666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>188</v>
       </c>
       <c r="F110" t="n">
-        <v>1011000</v>
+        <v>1472592.4863</v>
       </c>
       <c r="G110" t="n">
-        <v>188.5833333333333</v>
+        <v>188.6</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>188</v>
       </c>
       <c r="F111" t="n">
-        <v>1000000</v>
+        <v>1011000</v>
       </c>
       <c r="G111" t="n">
-        <v>188.5666666666667</v>
+        <v>188.5833333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>188</v>
       </c>
       <c r="F112" t="n">
-        <v>1275000</v>
+        <v>1000000</v>
       </c>
       <c r="G112" t="n">
-        <v>188.55</v>
+        <v>188.5666666666667</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>188</v>
       </c>
       <c r="F113" t="n">
-        <v>451500</v>
+        <v>1275000</v>
       </c>
       <c r="G113" t="n">
-        <v>188.5333333333333</v>
+        <v>188.55</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>188</v>
       </c>
       <c r="F114" t="n">
-        <v>1219500</v>
+        <v>451500</v>
       </c>
       <c r="G114" t="n">
-        <v>188.5166666666667</v>
+        <v>188.5333333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>188</v>
       </c>
       <c r="F115" t="n">
-        <v>1210500</v>
+        <v>1219500</v>
       </c>
       <c r="G115" t="n">
-        <v>188.5</v>
+        <v>188.5166666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>188</v>
       </c>
       <c r="F116" t="n">
-        <v>1219500</v>
+        <v>1210500</v>
       </c>
       <c r="G116" t="n">
-        <v>188.4833333333333</v>
+        <v>188.5</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>188</v>
       </c>
       <c r="F117" t="n">
-        <v>922500</v>
+        <v>1219500</v>
       </c>
       <c r="G117" t="n">
-        <v>188.4666666666667</v>
+        <v>188.4833333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>188</v>
       </c>
       <c r="F118" t="n">
-        <v>850266.7811</v>
+        <v>922500</v>
       </c>
       <c r="G118" t="n">
-        <v>188.45</v>
+        <v>188.4666666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>188</v>
       </c>
       <c r="C119" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D119" t="n">
         <v>188</v>
       </c>
       <c r="E119" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F119" t="n">
-        <v>337596</v>
+        <v>850266.7811</v>
       </c>
       <c r="G119" t="n">
-        <v>188.4166666666667</v>
+        <v>188.45</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C120" t="n">
         <v>187</v>
       </c>
       <c r="D120" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E120" t="n">
         <v>187</v>
       </c>
       <c r="F120" t="n">
-        <v>1347.9534</v>
+        <v>337596</v>
       </c>
       <c r="G120" t="n">
-        <v>188.3833333333333</v>
+        <v>188.4166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>187</v>
       </c>
       <c r="F121" t="n">
-        <v>2953.6399</v>
+        <v>1347.9534</v>
       </c>
       <c r="G121" t="n">
-        <v>188.35</v>
+        <v>188.3833333333333</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3540,12 +3905,15 @@
         <v>187</v>
       </c>
       <c r="F122" t="n">
-        <v>342.9996</v>
+        <v>2953.6399</v>
       </c>
       <c r="G122" t="n">
-        <v>188.3333333333333</v>
+        <v>188.35</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>187</v>
       </c>
       <c r="F123" t="n">
-        <v>1027.2035</v>
+        <v>342.9996</v>
       </c>
       <c r="G123" t="n">
-        <v>188.3166666666667</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>187</v>
       </c>
       <c r="F124" t="n">
-        <v>3911.7498</v>
+        <v>1027.2035</v>
       </c>
       <c r="G124" t="n">
-        <v>188.2833333333333</v>
+        <v>188.3166666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>187</v>
       </c>
       <c r="F125" t="n">
-        <v>780.476</v>
+        <v>3911.7498</v>
       </c>
       <c r="G125" t="n">
-        <v>188.25</v>
+        <v>188.2833333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>187</v>
       </c>
       <c r="F126" t="n">
-        <v>5.9993</v>
+        <v>780.476</v>
       </c>
       <c r="G126" t="n">
-        <v>188.2166666666667</v>
+        <v>188.25</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>187</v>
       </c>
       <c r="F127" t="n">
-        <v>2769</v>
+        <v>5.9993</v>
       </c>
       <c r="G127" t="n">
-        <v>188.1833333333333</v>
+        <v>188.2166666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +4067,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C128" t="n">
         <v>187</v>
@@ -3693,15 +4076,18 @@
         <v>187</v>
       </c>
       <c r="E128" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F128" t="n">
-        <v>3096.0258</v>
+        <v>2769</v>
       </c>
       <c r="G128" t="n">
-        <v>188.15</v>
+        <v>188.1833333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,7 +4096,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C129" t="n">
         <v>187</v>
@@ -3719,15 +4105,18 @@
         <v>187</v>
       </c>
       <c r="E129" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F129" t="n">
-        <v>4663.3509</v>
+        <v>3096.0258</v>
       </c>
       <c r="G129" t="n">
-        <v>188.1166666666667</v>
+        <v>188.15</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>187</v>
       </c>
       <c r="F130" t="n">
-        <v>1011.0365</v>
+        <v>4663.3509</v>
       </c>
       <c r="G130" t="n">
-        <v>188.0833333333333</v>
+        <v>188.1166666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>187</v>
       </c>
       <c r="F131" t="n">
-        <v>585</v>
+        <v>1011.0365</v>
       </c>
       <c r="G131" t="n">
-        <v>188.05</v>
+        <v>188.0833333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3791,21 +4186,24 @@
         <v>187</v>
       </c>
       <c r="C132" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D132" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E132" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F132" t="n">
-        <v>18106.2161</v>
+        <v>585</v>
       </c>
       <c r="G132" t="n">
-        <v>188.0333333333333</v>
+        <v>188.05</v>
       </c>
       <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C133" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D133" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E133" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F133" t="n">
-        <v>954.6634</v>
+        <v>18106.2161</v>
       </c>
       <c r="G133" t="n">
-        <v>187.9833333333333</v>
+        <v>188.0333333333333</v>
       </c>
       <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4253,15 @@
         <v>186</v>
       </c>
       <c r="F134" t="n">
-        <v>349.2527</v>
+        <v>954.6634</v>
       </c>
       <c r="G134" t="n">
-        <v>187.9333333333333</v>
+        <v>187.9833333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>186</v>
       </c>
       <c r="F135" t="n">
-        <v>985</v>
+        <v>349.2527</v>
       </c>
       <c r="G135" t="n">
-        <v>187.8833333333333</v>
+        <v>187.9333333333333</v>
       </c>
       <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C136" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D136" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E136" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F136" t="n">
-        <v>28800.2359</v>
+        <v>985</v>
       </c>
       <c r="G136" t="n">
-        <v>187.8166666666667</v>
+        <v>187.8833333333333</v>
       </c>
       <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C137" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D137" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E137" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F137" t="n">
-        <v>60.5531</v>
+        <v>28800.2359</v>
       </c>
       <c r="G137" t="n">
-        <v>187.8</v>
+        <v>187.8166666666667</v>
       </c>
       <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3947,21 +4360,24 @@
         <v>188</v>
       </c>
       <c r="C138" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D138" t="n">
         <v>188</v>
       </c>
       <c r="E138" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F138" t="n">
-        <v>28900.8029</v>
+        <v>60.5531</v>
       </c>
       <c r="G138" t="n">
-        <v>187.75</v>
+        <v>187.8</v>
       </c>
       <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3973,21 +4389,24 @@
         <v>188</v>
       </c>
       <c r="C139" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D139" t="n">
         <v>188</v>
       </c>
       <c r="E139" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F139" t="n">
-        <v>3400</v>
+        <v>28900.8029</v>
       </c>
       <c r="G139" t="n">
-        <v>187.7333333333333</v>
+        <v>187.75</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C140" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D140" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E140" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F140" t="n">
-        <v>503.3971</v>
+        <v>3400</v>
       </c>
       <c r="G140" t="n">
-        <v>187.7</v>
+        <v>187.7333333333333</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C141" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D141" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E141" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F141" t="n">
-        <v>3316</v>
+        <v>503.3971</v>
       </c>
       <c r="G141" t="n">
-        <v>187.6833333333333</v>
+        <v>187.7</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>188</v>
       </c>
       <c r="C142" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D142" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E142" t="n">
         <v>188</v>
       </c>
       <c r="F142" t="n">
-        <v>8523.2199</v>
+        <v>3316</v>
       </c>
       <c r="G142" t="n">
         <v>187.6833333333333</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>188</v>
       </c>
       <c r="F143" t="n">
-        <v>4038.305</v>
+        <v>8523.2199</v>
       </c>
       <c r="G143" t="n">
         <v>187.6833333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,7 +4531,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C144" t="n">
         <v>189</v>
@@ -4109,15 +4540,18 @@
         <v>189</v>
       </c>
       <c r="E144" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F144" t="n">
-        <v>2.4232</v>
+        <v>4038.305</v>
       </c>
       <c r="G144" t="n">
         <v>187.6833333333333</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>189</v>
       </c>
       <c r="F145" t="n">
-        <v>4627.0373</v>
+        <v>2.4232</v>
       </c>
       <c r="G145" t="n">
         <v>187.6833333333333</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>189</v>
       </c>
       <c r="F146" t="n">
-        <v>3044.16</v>
+        <v>4627.0373</v>
       </c>
       <c r="G146" t="n">
         <v>187.6833333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>189</v>
       </c>
       <c r="F147" t="n">
-        <v>84.9008</v>
+        <v>3044.16</v>
       </c>
       <c r="G147" t="n">
         <v>187.6833333333333</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>189</v>
       </c>
       <c r="F148" t="n">
-        <v>13.9534</v>
+        <v>84.9008</v>
       </c>
       <c r="G148" t="n">
-        <v>187.7</v>
+        <v>187.6833333333333</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C149" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D149" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E149" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F149" t="n">
-        <v>177.7926</v>
+        <v>13.9534</v>
       </c>
       <c r="G149" t="n">
-        <v>187.7333333333333</v>
+        <v>187.7</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>190</v>
       </c>
       <c r="F150" t="n">
-        <v>75.563</v>
+        <v>177.7926</v>
       </c>
       <c r="G150" t="n">
-        <v>187.7666666666667</v>
+        <v>187.7333333333333</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C151" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D151" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E151" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F151" t="n">
-        <v>2941.6125</v>
+        <v>75.563</v>
       </c>
       <c r="G151" t="n">
-        <v>187.8166666666667</v>
+        <v>187.7666666666667</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C152" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D152" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E152" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F152" t="n">
-        <v>235.9364</v>
+        <v>2941.6125</v>
       </c>
       <c r="G152" t="n">
-        <v>187.85</v>
+        <v>187.8166666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>190</v>
       </c>
       <c r="F153" t="n">
-        <v>397.5473</v>
+        <v>235.9364</v>
       </c>
       <c r="G153" t="n">
-        <v>187.8833333333333</v>
+        <v>187.85</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C154" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D154" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E154" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>397.5473</v>
       </c>
       <c r="G154" t="n">
-        <v>187.9333333333333</v>
+        <v>187.8833333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>191</v>
       </c>
       <c r="F155" t="n">
-        <v>5558.1413</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>187.9833333333333</v>
+        <v>187.9333333333333</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>191</v>
       </c>
       <c r="F156" t="n">
-        <v>7804.0497</v>
+        <v>5558.1413</v>
       </c>
       <c r="G156" t="n">
-        <v>188.0333333333333</v>
+        <v>187.9833333333333</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,7 +4908,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C157" t="n">
         <v>191</v>
@@ -4447,15 +4917,18 @@
         <v>191</v>
       </c>
       <c r="E157" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F157" t="n">
-        <v>5135.8185</v>
+        <v>7804.0497</v>
       </c>
       <c r="G157" t="n">
-        <v>188.0833333333333</v>
+        <v>188.0333333333333</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C158" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D158" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E158" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F158" t="n">
-        <v>231.0187</v>
+        <v>5135.8185</v>
       </c>
       <c r="G158" t="n">
-        <v>188.1166666666667</v>
+        <v>188.0833333333333</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C159" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D159" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E159" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F159" t="n">
-        <v>6691.1874</v>
+        <v>231.0187</v>
       </c>
       <c r="G159" t="n">
-        <v>188.1333333333333</v>
+        <v>188.1166666666667</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C160" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D160" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E160" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F160" t="n">
-        <v>8882.983899999999</v>
+        <v>6691.1874</v>
       </c>
       <c r="G160" t="n">
-        <v>188.1833333333333</v>
+        <v>188.1333333333333</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C161" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D161" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E161" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F161" t="n">
-        <v>2136.79</v>
+        <v>8882.983899999999</v>
       </c>
       <c r="G161" t="n">
-        <v>188.2</v>
+        <v>188.1833333333333</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C162" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D162" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E162" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>2136.79</v>
       </c>
       <c r="G162" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C163" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D163" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E163" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F163" t="n">
-        <v>901.1508</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>188.25</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>189</v>
       </c>
       <c r="F164" t="n">
-        <v>2550</v>
+        <v>901.1508</v>
       </c>
       <c r="G164" t="n">
-        <v>188.2666666666667</v>
+        <v>188.25</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>189</v>
       </c>
       <c r="F165" t="n">
-        <v>3550</v>
+        <v>2550</v>
       </c>
       <c r="G165" t="n">
-        <v>188.2833333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C166" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D166" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E166" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F166" t="n">
-        <v>6196.2395</v>
+        <v>3550</v>
       </c>
       <c r="G166" t="n">
         <v>188.2833333333333</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4707,15 +5207,18 @@
         <v>188</v>
       </c>
       <c r="E167" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F167" t="n">
-        <v>195.6125</v>
+        <v>6196.2395</v>
       </c>
       <c r="G167" t="n">
         <v>188.2833333333333</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4736,12 +5239,15 @@
         <v>188</v>
       </c>
       <c r="F168" t="n">
-        <v>537.6147</v>
+        <v>195.6125</v>
       </c>
       <c r="G168" t="n">
         <v>188.2833333333333</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>188</v>
       </c>
       <c r="F169" t="n">
-        <v>692.9382000000001</v>
+        <v>537.6147</v>
       </c>
       <c r="G169" t="n">
         <v>188.2833333333333</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C170" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D170" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E170" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F170" t="n">
-        <v>786.7415</v>
+        <v>692.9382000000001</v>
       </c>
       <c r="G170" t="n">
-        <v>188.2666666666667</v>
+        <v>188.2833333333333</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C171" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D171" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E171" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F171" t="n">
-        <v>169.7649</v>
+        <v>786.7415</v>
       </c>
       <c r="G171" t="n">
         <v>188.2666666666667</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>188</v>
       </c>
       <c r="F172" t="n">
-        <v>13</v>
+        <v>169.7649</v>
       </c>
       <c r="G172" t="n">
         <v>188.2666666666667</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4866,12 +5384,15 @@
         <v>188</v>
       </c>
       <c r="F173" t="n">
-        <v>3050</v>
+        <v>13</v>
       </c>
       <c r="G173" t="n">
         <v>188.2666666666667</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C174" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D174" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E174" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F174" t="n">
-        <v>1468.4558</v>
+        <v>3050</v>
       </c>
       <c r="G174" t="n">
-        <v>188.25</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,12 +5442,15 @@
         <v>187</v>
       </c>
       <c r="F175" t="n">
-        <v>2934.2584</v>
+        <v>1468.4558</v>
       </c>
       <c r="G175" t="n">
-        <v>188.2333333333333</v>
+        <v>188.25</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C176" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D176" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E176" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F176" t="n">
-        <v>293.4739</v>
+        <v>2934.2584</v>
       </c>
       <c r="G176" t="n">
         <v>188.2333333333333</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,12 +5500,15 @@
         <v>188</v>
       </c>
       <c r="F177" t="n">
-        <v>1315.4026</v>
+        <v>293.4739</v>
       </c>
       <c r="G177" t="n">
         <v>188.2333333333333</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4996,12 +5529,15 @@
         <v>188</v>
       </c>
       <c r="F178" t="n">
-        <v>176.8253</v>
+        <v>1315.4026</v>
       </c>
       <c r="G178" t="n">
         <v>188.2333333333333</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5022,12 +5558,15 @@
         <v>188</v>
       </c>
       <c r="F179" t="n">
-        <v>600</v>
+        <v>176.8253</v>
       </c>
       <c r="G179" t="n">
-        <v>188.25</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5048,12 +5587,15 @@
         <v>188</v>
       </c>
       <c r="F180" t="n">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="G180" t="n">
-        <v>188.2666666666667</v>
+        <v>188.25</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C181" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D181" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E181" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F181" t="n">
-        <v>68237.6752</v>
+        <v>2700</v>
       </c>
       <c r="G181" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5091,21 +5636,24 @@
         <v>187</v>
       </c>
       <c r="C182" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D182" t="n">
         <v>187</v>
       </c>
       <c r="E182" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F182" t="n">
-        <v>9029.0749</v>
+        <v>68237.6752</v>
       </c>
       <c r="G182" t="n">
-        <v>188.2166666666667</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C183" t="n">
         <v>186</v>
       </c>
       <c r="D183" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E183" t="n">
         <v>186</v>
       </c>
       <c r="F183" t="n">
-        <v>1.5021</v>
+        <v>9029.0749</v>
       </c>
       <c r="G183" t="n">
-        <v>188.2</v>
+        <v>188.2166666666667</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C184" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D184" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E184" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F184" t="n">
-        <v>526.3157</v>
+        <v>1.5021</v>
       </c>
       <c r="G184" t="n">
         <v>188.2</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C185" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D185" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E185" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F185" t="n">
-        <v>303.3439</v>
+        <v>526.3157</v>
       </c>
       <c r="G185" t="n">
-        <v>188.1833333333333</v>
+        <v>188.2</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5195,21 +5752,24 @@
         <v>186</v>
       </c>
       <c r="C186" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D186" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E186" t="n">
         <v>186</v>
       </c>
       <c r="F186" t="n">
-        <v>1669</v>
+        <v>303.3439</v>
       </c>
       <c r="G186" t="n">
         <v>188.1833333333333</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,7 +5778,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C187" t="n">
         <v>187</v>
@@ -5227,15 +5787,18 @@
         <v>187</v>
       </c>
       <c r="E187" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F187" t="n">
-        <v>8995.6919</v>
+        <v>1669</v>
       </c>
       <c r="G187" t="n">
         <v>188.1833333333333</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C188" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D188" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E188" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F188" t="n">
-        <v>1000</v>
+        <v>8995.6919</v>
       </c>
       <c r="G188" t="n">
-        <v>188.2166666666667</v>
+        <v>188.1833333333333</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5282,12 +5848,15 @@
         <v>189</v>
       </c>
       <c r="F189" t="n">
-        <v>6510.4338</v>
+        <v>1000</v>
       </c>
       <c r="G189" t="n">
-        <v>188.25</v>
+        <v>188.2166666666667</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5308,12 +5877,15 @@
         <v>189</v>
       </c>
       <c r="F190" t="n">
-        <v>870.7566</v>
+        <v>6510.4338</v>
       </c>
       <c r="G190" t="n">
-        <v>188.2833333333333</v>
+        <v>188.25</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D191" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E191" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F191" t="n">
-        <v>39536.8292</v>
+        <v>870.7566</v>
       </c>
       <c r="G191" t="n">
-        <v>188.2666666666667</v>
+        <v>188.2833333333333</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C192" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D192" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E192" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F192" t="n">
-        <v>6560.0916</v>
+        <v>39536.8292</v>
       </c>
       <c r="G192" t="n">
-        <v>188.25</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C193" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D193" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E193" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F193" t="n">
-        <v>15</v>
+        <v>6560.0916</v>
       </c>
       <c r="G193" t="n">
-        <v>188.3</v>
+        <v>188.25</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,12 +5993,15 @@
         <v>189</v>
       </c>
       <c r="F194" t="n">
-        <v>6378.4221</v>
+        <v>15</v>
       </c>
       <c r="G194" t="n">
-        <v>188.35</v>
+        <v>188.3</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5438,12 +6022,15 @@
         <v>189</v>
       </c>
       <c r="F195" t="n">
-        <v>307.719</v>
+        <v>6378.4221</v>
       </c>
       <c r="G195" t="n">
-        <v>188.4</v>
+        <v>188.35</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C196" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D196" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E196" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F196" t="n">
-        <v>2870.3315</v>
+        <v>307.719</v>
       </c>
       <c r="G196" t="n">
-        <v>188.4833333333333</v>
+        <v>188.4</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C197" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D197" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E197" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F197" t="n">
-        <v>300</v>
+        <v>2870.3315</v>
       </c>
       <c r="G197" t="n">
         <v>188.4833333333333</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5516,12 +6109,15 @@
         <v>188</v>
       </c>
       <c r="F198" t="n">
-        <v>10153.0478</v>
+        <v>300</v>
       </c>
       <c r="G198" t="n">
-        <v>188.5166666666667</v>
+        <v>188.4833333333333</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5542,12 +6138,15 @@
         <v>188</v>
       </c>
       <c r="F199" t="n">
-        <v>232.1854</v>
+        <v>10153.0478</v>
       </c>
       <c r="G199" t="n">
         <v>188.5166666666667</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5568,12 +6167,15 @@
         <v>188</v>
       </c>
       <c r="F200" t="n">
-        <v>2340.2466</v>
+        <v>232.1854</v>
       </c>
       <c r="G200" t="n">
-        <v>188.5333333333333</v>
+        <v>188.5166666666667</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>188</v>
       </c>
       <c r="F201" t="n">
-        <v>476.2057</v>
+        <v>2340.2466</v>
       </c>
       <c r="G201" t="n">
         <v>188.5333333333333</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5620,12 +6225,15 @@
         <v>188</v>
       </c>
       <c r="F202" t="n">
-        <v>84.4147</v>
+        <v>476.2057</v>
       </c>
       <c r="G202" t="n">
-        <v>188.5166666666667</v>
+        <v>188.5333333333333</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C203" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D203" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E203" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F203" t="n">
-        <v>137.723</v>
+        <v>84.4147</v>
       </c>
       <c r="G203" t="n">
-        <v>188.4833333333333</v>
+        <v>188.5166666666667</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C204" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D204" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E204" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F204" t="n">
-        <v>9.975</v>
+        <v>137.723</v>
       </c>
       <c r="G204" t="n">
-        <v>188.4333333333333</v>
+        <v>188.4833333333333</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C205" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D205" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E205" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F205" t="n">
-        <v>5667.07</v>
+        <v>9.975</v>
       </c>
       <c r="G205" t="n">
-        <v>188.4</v>
+        <v>188.4333333333333</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C206" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D206" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E206" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F206" t="n">
-        <v>801</v>
+        <v>5667.07</v>
       </c>
       <c r="G206" t="n">
-        <v>188.3833333333333</v>
+        <v>188.4</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,12 +6370,15 @@
         <v>188</v>
       </c>
       <c r="F207" t="n">
-        <v>3762.2141</v>
+        <v>801</v>
       </c>
       <c r="G207" t="n">
-        <v>188.3666666666667</v>
+        <v>188.3833333333333</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C208" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D208" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E208" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F208" t="n">
-        <v>457.142</v>
+        <v>3762.2141</v>
       </c>
       <c r="G208" t="n">
         <v>188.3666666666667</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C209" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D209" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E209" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F209" t="n">
-        <v>10</v>
+        <v>457.142</v>
       </c>
       <c r="G209" t="n">
-        <v>188.3833333333333</v>
+        <v>188.3666666666667</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>191</v>
       </c>
       <c r="F210" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G210" t="n">
-        <v>188.4</v>
+        <v>188.3833333333333</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5845,21 +6477,24 @@
         <v>191</v>
       </c>
       <c r="C211" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D211" t="n">
         <v>191</v>
       </c>
       <c r="E211" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F211" t="n">
-        <v>88</v>
+        <v>500</v>
       </c>
       <c r="G211" t="n">
-        <v>188.3666666666667</v>
+        <v>188.4</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C212" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D212" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E212" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F212" t="n">
-        <v>31.1535</v>
+        <v>88</v>
       </c>
       <c r="G212" t="n">
         <v>188.3666666666667</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5906,12 +6544,15 @@
         <v>190</v>
       </c>
       <c r="F213" t="n">
-        <v>22</v>
+        <v>31.1535</v>
       </c>
       <c r="G213" t="n">
         <v>188.3666666666667</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C214" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D214" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E214" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F214" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G214" t="n">
-        <v>188.3333333333333</v>
+        <v>188.3666666666667</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5958,12 +6602,15 @@
         <v>189</v>
       </c>
       <c r="F215" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G215" t="n">
-        <v>188.3</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5984,12 +6631,15 @@
         <v>189</v>
       </c>
       <c r="F216" t="n">
-        <v>6000</v>
+        <v>66</v>
       </c>
       <c r="G216" t="n">
-        <v>188.2666666666667</v>
+        <v>188.3</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6010,12 +6660,15 @@
         <v>189</v>
       </c>
       <c r="F217" t="n">
-        <v>5031.1535</v>
+        <v>6000</v>
       </c>
       <c r="G217" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C218" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D218" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E218" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F218" t="n">
-        <v>1</v>
+        <v>5031.1535</v>
       </c>
       <c r="G218" t="n">
         <v>188.2333333333333</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C219" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D219" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E219" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F219" t="n">
-        <v>10850.562</v>
+        <v>1</v>
       </c>
       <c r="G219" t="n">
         <v>188.2333333333333</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6088,12 +6747,15 @@
         <v>189</v>
       </c>
       <c r="F220" t="n">
-        <v>1469.9651</v>
+        <v>10850.562</v>
       </c>
       <c r="G220" t="n">
-        <v>188.2</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6114,12 +6776,15 @@
         <v>189</v>
       </c>
       <c r="F221" t="n">
-        <v>6836.2676</v>
+        <v>1469.9651</v>
       </c>
       <c r="G221" t="n">
         <v>188.2</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6140,12 +6805,15 @@
         <v>189</v>
       </c>
       <c r="F222" t="n">
-        <v>6616.7751</v>
+        <v>6836.2676</v>
       </c>
       <c r="G222" t="n">
-        <v>188.1833333333333</v>
+        <v>188.2</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,12 +6834,15 @@
         <v>189</v>
       </c>
       <c r="F223" t="n">
-        <v>593.159</v>
+        <v>6616.7751</v>
       </c>
       <c r="G223" t="n">
         <v>188.1833333333333</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6192,12 +6863,15 @@
         <v>189</v>
       </c>
       <c r="F224" t="n">
-        <v>456.611</v>
+        <v>593.159</v>
       </c>
       <c r="G224" t="n">
         <v>188.1833333333333</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6218,12 +6892,15 @@
         <v>189</v>
       </c>
       <c r="F225" t="n">
-        <v>2</v>
+        <v>456.611</v>
       </c>
       <c r="G225" t="n">
         <v>188.1833333333333</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,12 +6921,15 @@
         <v>189</v>
       </c>
       <c r="F226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G226" t="n">
-        <v>188.2</v>
+        <v>188.1833333333333</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6270,12 +6950,15 @@
         <v>189</v>
       </c>
       <c r="F227" t="n">
-        <v>161.3619</v>
+        <v>1</v>
       </c>
       <c r="G227" t="n">
-        <v>188.2166666666667</v>
+        <v>188.2</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6296,12 +6979,15 @@
         <v>189</v>
       </c>
       <c r="F228" t="n">
-        <v>2754.8153</v>
+        <v>161.3619</v>
       </c>
       <c r="G228" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2166666666667</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C229" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D229" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E229" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F229" t="n">
-        <v>1542.4859</v>
+        <v>2754.8153</v>
       </c>
       <c r="G229" t="n">
         <v>188.2333333333333</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C230" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D230" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E230" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F230" t="n">
-        <v>5195</v>
+        <v>1542.4859</v>
       </c>
       <c r="G230" t="n">
-        <v>188.2666666666667</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6371,15 +7063,18 @@
         <v>189</v>
       </c>
       <c r="E231" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F231" t="n">
-        <v>5687.2448</v>
+        <v>5195</v>
       </c>
       <c r="G231" t="n">
-        <v>188.2833333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6397,15 +7092,18 @@
         <v>189</v>
       </c>
       <c r="E232" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F232" t="n">
-        <v>4658.3194</v>
+        <v>5687.2448</v>
       </c>
       <c r="G232" t="n">
-        <v>188.3</v>
+        <v>188.2833333333333</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C233" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D233" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E233" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F233" t="n">
-        <v>220.369</v>
+        <v>4658.3194</v>
       </c>
       <c r="G233" t="n">
-        <v>188.3333333333333</v>
+        <v>188.3</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6443,21 +7144,24 @@
         <v>190</v>
       </c>
       <c r="C234" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D234" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E234" t="n">
         <v>190</v>
       </c>
       <c r="F234" t="n">
-        <v>14897.0989</v>
+        <v>220.369</v>
       </c>
       <c r="G234" t="n">
-        <v>188.4166666666667</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6469,21 +7173,24 @@
         <v>190</v>
       </c>
       <c r="C235" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D235" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E235" t="n">
         <v>190</v>
       </c>
       <c r="F235" t="n">
-        <v>265.5536</v>
+        <v>14897.0989</v>
       </c>
       <c r="G235" t="n">
-        <v>188.4666666666667</v>
+        <v>188.4166666666667</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6504,12 +7211,15 @@
         <v>190</v>
       </c>
       <c r="F236" t="n">
-        <v>3396.5063</v>
+        <v>265.5536</v>
       </c>
       <c r="G236" t="n">
-        <v>188.5</v>
+        <v>188.4666666666667</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6530,12 +7240,15 @@
         <v>190</v>
       </c>
       <c r="F237" t="n">
-        <v>523.8238</v>
+        <v>3396.5063</v>
       </c>
       <c r="G237" t="n">
-        <v>188.5333333333333</v>
+        <v>188.5</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C238" t="n">
         <v>190</v>
       </c>
       <c r="D238" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E238" t="n">
         <v>190</v>
       </c>
       <c r="F238" t="n">
-        <v>5431.5037</v>
+        <v>523.8238</v>
       </c>
       <c r="G238" t="n">
-        <v>188.5666666666667</v>
+        <v>188.5333333333333</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6573,21 +7289,24 @@
         <v>191</v>
       </c>
       <c r="C239" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D239" t="n">
         <v>191</v>
       </c>
       <c r="E239" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F239" t="n">
-        <v>5235.0141</v>
+        <v>5431.5037</v>
       </c>
       <c r="G239" t="n">
-        <v>188.6166666666667</v>
+        <v>188.5666666666667</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C240" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D240" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E240" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F240" t="n">
-        <v>207.4173</v>
+        <v>5235.0141</v>
       </c>
       <c r="G240" t="n">
-        <v>188.65</v>
+        <v>188.6166666666667</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C241" t="n">
         <v>190</v>
       </c>
       <c r="D241" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E241" t="n">
         <v>190</v>
       </c>
       <c r="F241" t="n">
-        <v>2589.5176</v>
+        <v>207.4173</v>
       </c>
       <c r="G241" t="n">
-        <v>188.7333333333333</v>
+        <v>188.65</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C242" t="n">
         <v>190</v>
       </c>
       <c r="D242" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E242" t="n">
         <v>190</v>
       </c>
       <c r="F242" t="n">
-        <v>10008</v>
+        <v>2589.5176</v>
       </c>
       <c r="G242" t="n">
-        <v>188.8</v>
+        <v>188.7333333333333</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6686,12 +7414,15 @@
         <v>190</v>
       </c>
       <c r="F243" t="n">
-        <v>246.4479</v>
+        <v>10008</v>
       </c>
       <c r="G243" t="n">
-        <v>188.8666666666667</v>
+        <v>188.8</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6712,12 +7443,15 @@
         <v>190</v>
       </c>
       <c r="F244" t="n">
-        <v>581</v>
+        <v>246.4479</v>
       </c>
       <c r="G244" t="n">
-        <v>188.9166666666667</v>
+        <v>188.8666666666667</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C245" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D245" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E245" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F245" t="n">
-        <v>212.7902</v>
+        <v>581</v>
       </c>
       <c r="G245" t="n">
-        <v>189</v>
+        <v>188.9166666666667</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6764,12 +7501,15 @@
         <v>191</v>
       </c>
       <c r="F246" t="n">
-        <v>194</v>
+        <v>212.7902</v>
       </c>
       <c r="G246" t="n">
-        <v>189.0666666666667</v>
+        <v>189</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C247" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D247" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E247" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F247" t="n">
-        <v>189.4135</v>
+        <v>194</v>
       </c>
       <c r="G247" t="n">
-        <v>189.1166666666667</v>
+        <v>189.0666666666667</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6816,12 +7559,15 @@
         <v>190</v>
       </c>
       <c r="F248" t="n">
-        <v>61.6425</v>
+        <v>189.4135</v>
       </c>
       <c r="G248" t="n">
-        <v>189.1333333333333</v>
+        <v>189.1166666666667</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6833,21 +7579,24 @@
         <v>190</v>
       </c>
       <c r="C249" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D249" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E249" t="n">
         <v>190</v>
       </c>
       <c r="F249" t="n">
-        <v>4712.651</v>
+        <v>61.6425</v>
       </c>
       <c r="G249" t="n">
-        <v>189.1666666666667</v>
+        <v>189.1333333333333</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6859,21 +7608,24 @@
         <v>190</v>
       </c>
       <c r="C250" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D250" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E250" t="n">
         <v>190</v>
       </c>
       <c r="F250" t="n">
-        <v>119.4135</v>
+        <v>4712.651</v>
       </c>
       <c r="G250" t="n">
-        <v>189.1833333333333</v>
+        <v>189.1666666666667</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6894,12 +7646,15 @@
         <v>190</v>
       </c>
       <c r="F251" t="n">
-        <v>96.46729999999999</v>
+        <v>119.4135</v>
       </c>
       <c r="G251" t="n">
-        <v>189.25</v>
+        <v>189.1833333333333</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C252" t="n">
         <v>190</v>
       </c>
       <c r="D252" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E252" t="n">
         <v>190</v>
       </c>
       <c r="F252" t="n">
-        <v>7174.2178</v>
+        <v>96.46729999999999</v>
       </c>
       <c r="G252" t="n">
-        <v>189.3</v>
+        <v>189.25</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6937,21 +7695,24 @@
         <v>191</v>
       </c>
       <c r="C253" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D253" t="n">
         <v>191</v>
       </c>
       <c r="E253" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F253" t="n">
-        <v>2484.3389</v>
+        <v>7174.2178</v>
       </c>
       <c r="G253" t="n">
-        <v>189.3333333333333</v>
+        <v>189.3</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C254" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D254" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E254" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F254" t="n">
-        <v>14.2857</v>
+        <v>2484.3389</v>
       </c>
       <c r="G254" t="n">
-        <v>189.35</v>
+        <v>189.3333333333333</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C255" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D255" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E255" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F255" t="n">
-        <v>649.8581</v>
+        <v>14.2857</v>
       </c>
       <c r="G255" t="n">
         <v>189.35</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,24 +7779,27 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C256" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D256" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E256" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F256" t="n">
-        <v>95.1587</v>
+        <v>649.8581</v>
       </c>
       <c r="G256" t="n">
-        <v>189.3833333333333</v>
+        <v>189.35</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7050,12 +7820,15 @@
         <v>192</v>
       </c>
       <c r="F257" t="n">
-        <v>94.8473</v>
+        <v>95.1587</v>
       </c>
       <c r="G257" t="n">
-        <v>189.45</v>
+        <v>189.3833333333333</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,24 +7837,27 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C258" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D258" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E258" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F258" t="n">
-        <v>225.1472</v>
+        <v>94.8473</v>
       </c>
       <c r="G258" t="n">
-        <v>189.5</v>
+        <v>189.45</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7093,22 +7869,25 @@
         <v>191</v>
       </c>
       <c r="C259" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D259" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E259" t="n">
         <v>191</v>
       </c>
       <c r="F259" t="n">
-        <v>2200</v>
+        <v>225.1472</v>
       </c>
       <c r="G259" t="n">
-        <v>189.5666666666667</v>
+        <v>189.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -7116,7 +7895,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C260" t="n">
         <v>192</v>
@@ -7125,15 +7904,18 @@
         <v>192</v>
       </c>
       <c r="E260" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F260" t="n">
-        <v>112.7527</v>
+        <v>2200</v>
       </c>
       <c r="G260" t="n">
-        <v>189.6333333333333</v>
+        <v>189.5666666666667</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7154,12 +7936,15 @@
         <v>192</v>
       </c>
       <c r="F261" t="n">
-        <v>134.7054</v>
+        <v>112.7527</v>
       </c>
       <c r="G261" t="n">
-        <v>189.7</v>
+        <v>189.6333333333333</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7180,12 +7965,15 @@
         <v>192</v>
       </c>
       <c r="F262" t="n">
-        <v>21.8069</v>
+        <v>134.7054</v>
       </c>
       <c r="G262" t="n">
-        <v>189.7666666666667</v>
+        <v>189.7</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7206,12 +7994,15 @@
         <v>192</v>
       </c>
       <c r="F263" t="n">
-        <v>4687.8569</v>
+        <v>21.8069</v>
       </c>
       <c r="G263" t="n">
-        <v>189.85</v>
+        <v>189.7666666666667</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,24 +8011,27 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C264" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D264" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E264" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F264" t="n">
-        <v>1876.208</v>
+        <v>4687.8569</v>
       </c>
       <c r="G264" t="n">
-        <v>189.9333333333333</v>
+        <v>189.85</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7258,12 +8052,15 @@
         <v>191</v>
       </c>
       <c r="F265" t="n">
-        <v>2073</v>
+        <v>1876.208</v>
       </c>
       <c r="G265" t="n">
-        <v>190</v>
+        <v>189.9333333333333</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7284,12 +8081,15 @@
         <v>191</v>
       </c>
       <c r="F266" t="n">
-        <v>884.4933</v>
+        <v>2073</v>
       </c>
       <c r="G266" t="n">
-        <v>190.05</v>
+        <v>190</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7310,12 +8110,15 @@
         <v>191</v>
       </c>
       <c r="F267" t="n">
-        <v>334.2385</v>
+        <v>884.4933</v>
       </c>
       <c r="G267" t="n">
-        <v>190.1</v>
+        <v>190.05</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7324,24 +8127,27 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C268" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D268" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E268" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F268" t="n">
-        <v>1000</v>
+        <v>334.2385</v>
       </c>
       <c r="G268" t="n">
-        <v>190.1166666666667</v>
+        <v>190.1</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7350,24 +8156,27 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C269" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D269" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E269" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F269" t="n">
-        <v>266.1577</v>
+        <v>1000</v>
       </c>
       <c r="G269" t="n">
         <v>190.1166666666667</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7376,24 +8185,27 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C270" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D270" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E270" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F270" t="n">
-        <v>1168.2004</v>
+        <v>266.1577</v>
       </c>
       <c r="G270" t="n">
-        <v>190.1333333333333</v>
+        <v>190.1166666666667</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7402,24 +8214,27 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C271" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D271" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E271" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F271" t="n">
-        <v>1</v>
+        <v>1168.2004</v>
       </c>
       <c r="G271" t="n">
-        <v>190.2</v>
+        <v>190.1333333333333</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7440,12 +8255,15 @@
         <v>193</v>
       </c>
       <c r="F272" t="n">
-        <v>18.2235</v>
+        <v>1</v>
       </c>
       <c r="G272" t="n">
-        <v>190.25</v>
+        <v>190.2</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,24 +8272,27 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C273" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D273" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E273" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F273" t="n">
-        <v>1</v>
+        <v>18.2235</v>
       </c>
       <c r="G273" t="n">
-        <v>190.3166666666667</v>
+        <v>190.25</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7483,21 +8304,24 @@
         <v>194</v>
       </c>
       <c r="C274" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D274" t="n">
         <v>194</v>
       </c>
       <c r="E274" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F274" t="n">
-        <v>1386.799</v>
+        <v>1</v>
       </c>
       <c r="G274" t="n">
-        <v>190.3666666666667</v>
+        <v>190.3166666666667</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7509,21 +8333,24 @@
         <v>194</v>
       </c>
       <c r="C275" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D275" t="n">
         <v>194</v>
       </c>
       <c r="E275" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F275" t="n">
-        <v>1</v>
+        <v>1386.799</v>
       </c>
       <c r="G275" t="n">
-        <v>190.45</v>
+        <v>190.3666666666667</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7532,24 +8359,27 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C276" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D276" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E276" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F276" t="n">
-        <v>299.9999</v>
+        <v>1</v>
       </c>
       <c r="G276" t="n">
-        <v>190.5166666666667</v>
+        <v>190.45</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7570,12 +8400,15 @@
         <v>193</v>
       </c>
       <c r="F277" t="n">
-        <v>3189.8993</v>
+        <v>299.9999</v>
       </c>
       <c r="G277" t="n">
-        <v>190.5833333333333</v>
+        <v>190.5166666666667</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7584,24 +8417,27 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C278" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D278" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E278" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F278" t="n">
-        <v>12.7526</v>
+        <v>3189.8993</v>
       </c>
       <c r="G278" t="n">
-        <v>190.6166666666667</v>
+        <v>190.5833333333333</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7616,18 +8452,21 @@
         <v>192</v>
       </c>
       <c r="D279" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E279" t="n">
         <v>192</v>
       </c>
       <c r="F279" t="n">
-        <v>8015.3102</v>
+        <v>12.7526</v>
       </c>
       <c r="G279" t="n">
-        <v>190.6666666666667</v>
+        <v>190.6166666666667</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7642,18 +8481,21 @@
         <v>192</v>
       </c>
       <c r="D280" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E280" t="n">
         <v>192</v>
       </c>
       <c r="F280" t="n">
-        <v>4155.9999</v>
+        <v>8015.3102</v>
       </c>
       <c r="G280" t="n">
-        <v>190.7166666666667</v>
+        <v>190.6666666666667</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7665,21 +8507,24 @@
         <v>192</v>
       </c>
       <c r="C281" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D281" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E281" t="n">
         <v>192</v>
       </c>
       <c r="F281" t="n">
-        <v>1294.4803</v>
+        <v>4155.9999</v>
       </c>
       <c r="G281" t="n">
-        <v>190.7833333333333</v>
+        <v>190.7166666666667</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7688,24 +8533,27 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C282" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D282" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E282" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F282" t="n">
-        <v>1</v>
+        <v>1294.4803</v>
       </c>
       <c r="G282" t="n">
-        <v>190.8166666666667</v>
+        <v>190.7833333333333</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7714,24 +8562,27 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C283" t="n">
         <v>191</v>
       </c>
       <c r="D283" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E283" t="n">
         <v>191</v>
       </c>
       <c r="F283" t="n">
-        <v>816.6412</v>
+        <v>1</v>
       </c>
       <c r="G283" t="n">
-        <v>190.85</v>
+        <v>190.8166666666667</v>
       </c>
       <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7743,21 +8594,24 @@
         <v>193</v>
       </c>
       <c r="C284" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D284" t="n">
         <v>193</v>
       </c>
       <c r="E284" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F284" t="n">
-        <v>1</v>
+        <v>816.6412</v>
       </c>
       <c r="G284" t="n">
-        <v>190.9166666666667</v>
+        <v>190.85</v>
       </c>
       <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7778,532 +8632,15 @@
         <v>193</v>
       </c>
       <c r="F285" t="n">
-        <v>2342.3575</v>
+        <v>1</v>
       </c>
       <c r="G285" t="n">
-        <v>190.9833333333333</v>
+        <v>190.9166666666667</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>193</v>
-      </c>
-      <c r="C286" t="n">
-        <v>193</v>
-      </c>
-      <c r="D286" t="n">
-        <v>193</v>
-      </c>
-      <c r="E286" t="n">
-        <v>193</v>
-      </c>
-      <c r="F286" t="n">
-        <v>113.2336</v>
-      </c>
-      <c r="G286" t="n">
-        <v>191.05</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>193</v>
-      </c>
-      <c r="C287" t="n">
-        <v>193</v>
-      </c>
-      <c r="D287" t="n">
-        <v>193</v>
-      </c>
-      <c r="E287" t="n">
-        <v>193</v>
-      </c>
-      <c r="F287" t="n">
-        <v>1.3886</v>
-      </c>
-      <c r="G287" t="n">
-        <v>191.1166666666667</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>193</v>
-      </c>
-      <c r="C288" t="n">
-        <v>193</v>
-      </c>
-      <c r="D288" t="n">
-        <v>193</v>
-      </c>
-      <c r="E288" t="n">
-        <v>193</v>
-      </c>
-      <c r="F288" t="n">
-        <v>772.496</v>
-      </c>
-      <c r="G288" t="n">
-        <v>191.1833333333333</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>194</v>
-      </c>
-      <c r="C289" t="n">
-        <v>194</v>
-      </c>
-      <c r="D289" t="n">
-        <v>194</v>
-      </c>
-      <c r="E289" t="n">
-        <v>194</v>
-      </c>
-      <c r="F289" t="n">
-        <v>835.871</v>
-      </c>
-      <c r="G289" t="n">
-        <v>191.2833333333333</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>194</v>
-      </c>
-      <c r="C290" t="n">
-        <v>194</v>
-      </c>
-      <c r="D290" t="n">
-        <v>194</v>
-      </c>
-      <c r="E290" t="n">
-        <v>194</v>
-      </c>
-      <c r="F290" t="n">
-        <v>846</v>
-      </c>
-      <c r="G290" t="n">
-        <v>191.3666666666667</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>194</v>
-      </c>
-      <c r="C291" t="n">
-        <v>195</v>
-      </c>
-      <c r="D291" t="n">
-        <v>195</v>
-      </c>
-      <c r="E291" t="n">
-        <v>194</v>
-      </c>
-      <c r="F291" t="n">
-        <v>3600.6128</v>
-      </c>
-      <c r="G291" t="n">
-        <v>191.4666666666667</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>194</v>
-      </c>
-      <c r="C292" t="n">
-        <v>194</v>
-      </c>
-      <c r="D292" t="n">
-        <v>194</v>
-      </c>
-      <c r="E292" t="n">
-        <v>194</v>
-      </c>
-      <c r="F292" t="n">
-        <v>829</v>
-      </c>
-      <c r="G292" t="n">
-        <v>191.55</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>194</v>
-      </c>
-      <c r="C293" t="n">
-        <v>194</v>
-      </c>
-      <c r="D293" t="n">
-        <v>194</v>
-      </c>
-      <c r="E293" t="n">
-        <v>194</v>
-      </c>
-      <c r="F293" t="n">
-        <v>1653.7754</v>
-      </c>
-      <c r="G293" t="n">
-        <v>191.6166666666667</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>195</v>
-      </c>
-      <c r="C294" t="n">
-        <v>195</v>
-      </c>
-      <c r="D294" t="n">
-        <v>195</v>
-      </c>
-      <c r="E294" t="n">
-        <v>195</v>
-      </c>
-      <c r="F294" t="n">
-        <v>2486.2102</v>
-      </c>
-      <c r="G294" t="n">
-        <v>191.6666666666667</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>195</v>
-      </c>
-      <c r="C295" t="n">
-        <v>195</v>
-      </c>
-      <c r="D295" t="n">
-        <v>195</v>
-      </c>
-      <c r="E295" t="n">
-        <v>195</v>
-      </c>
-      <c r="F295" t="n">
-        <v>3369.1128</v>
-      </c>
-      <c r="G295" t="n">
-        <v>191.75</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>194</v>
-      </c>
-      <c r="C296" t="n">
-        <v>194</v>
-      </c>
-      <c r="D296" t="n">
-        <v>194</v>
-      </c>
-      <c r="E296" t="n">
-        <v>194</v>
-      </c>
-      <c r="F296" t="n">
-        <v>11890.8954</v>
-      </c>
-      <c r="G296" t="n">
-        <v>191.8166666666667</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>194</v>
-      </c>
-      <c r="C297" t="n">
-        <v>194</v>
-      </c>
-      <c r="D297" t="n">
-        <v>194</v>
-      </c>
-      <c r="E297" t="n">
-        <v>194</v>
-      </c>
-      <c r="F297" t="n">
-        <v>8729.403200000001</v>
-      </c>
-      <c r="G297" t="n">
-        <v>191.8833333333333</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>194</v>
-      </c>
-      <c r="C298" t="n">
-        <v>194</v>
-      </c>
-      <c r="D298" t="n">
-        <v>194</v>
-      </c>
-      <c r="E298" t="n">
-        <v>194</v>
-      </c>
-      <c r="F298" t="n">
-        <v>10309.2783</v>
-      </c>
-      <c r="G298" t="n">
-        <v>191.95</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>193</v>
-      </c>
-      <c r="C299" t="n">
-        <v>193</v>
-      </c>
-      <c r="D299" t="n">
-        <v>193</v>
-      </c>
-      <c r="E299" t="n">
-        <v>193</v>
-      </c>
-      <c r="F299" t="n">
-        <v>5998.2227</v>
-      </c>
-      <c r="G299" t="n">
-        <v>191.9833333333333</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>193</v>
-      </c>
-      <c r="C300" t="n">
-        <v>193</v>
-      </c>
-      <c r="D300" t="n">
-        <v>193</v>
-      </c>
-      <c r="E300" t="n">
-        <v>193</v>
-      </c>
-      <c r="F300" t="n">
-        <v>3360.69</v>
-      </c>
-      <c r="G300" t="n">
-        <v>192.0333333333333</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>193</v>
-      </c>
-      <c r="C301" t="n">
-        <v>193</v>
-      </c>
-      <c r="D301" t="n">
-        <v>193</v>
-      </c>
-      <c r="E301" t="n">
-        <v>193</v>
-      </c>
-      <c r="F301" t="n">
-        <v>127.7394</v>
-      </c>
-      <c r="G301" t="n">
-        <v>192.0833333333333</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>193</v>
-      </c>
-      <c r="C302" t="n">
-        <v>193</v>
-      </c>
-      <c r="D302" t="n">
-        <v>193</v>
-      </c>
-      <c r="E302" t="n">
-        <v>193</v>
-      </c>
-      <c r="F302" t="n">
-        <v>2519.4722</v>
-      </c>
-      <c r="G302" t="n">
-        <v>192.1333333333333</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>194</v>
-      </c>
-      <c r="C303" t="n">
-        <v>194</v>
-      </c>
-      <c r="D303" t="n">
-        <v>194</v>
-      </c>
-      <c r="E303" t="n">
-        <v>194</v>
-      </c>
-      <c r="F303" t="n">
-        <v>1</v>
-      </c>
-      <c r="G303" t="n">
-        <v>192.2</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>192</v>
-      </c>
-      <c r="C304" t="n">
-        <v>192</v>
-      </c>
-      <c r="D304" t="n">
-        <v>192</v>
-      </c>
-      <c r="E304" t="n">
-        <v>192</v>
-      </c>
-      <c r="F304" t="n">
-        <v>2250</v>
-      </c>
-      <c r="G304" t="n">
-        <v>192.2333333333333</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>194</v>
-      </c>
-      <c r="C305" t="n">
-        <v>194</v>
-      </c>
-      <c r="D305" t="n">
-        <v>194</v>
-      </c>
-      <c r="E305" t="n">
-        <v>194</v>
-      </c>
-      <c r="F305" t="n">
-        <v>1</v>
-      </c>
-      <c r="G305" t="n">
-        <v>192.2833333333333</v>
-      </c>
-      <c r="H305" t="n">
+      <c r="I285" t="n">
         <v>0</v>
       </c>
     </row>
